--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="261">
   <si>
     <t>tableName</t>
   </si>
@@ -101,9 +101,6 @@
     <t>ASSET_SCHM_CODE</t>
   </si>
   <si>
-    <t>[IS_ACTIVE]</t>
-  </si>
-  <si>
     <t>ASSET_TYPE</t>
   </si>
   <si>
@@ -179,12 +176,6 @@
     <t>IS_SHAREHOLDER</t>
   </si>
   <si>
-    <t>[CUST_ADDR]</t>
-  </si>
-  <si>
-    <t>[MR_CUST_ADDR_TYPE_CODE]</t>
-  </si>
-  <si>
     <t>joinTableName</t>
   </si>
   <si>
@@ -194,31 +185,628 @@
     <t>CUST_ADDR_TYPE</t>
   </si>
   <si>
-    <t>[ZIPCODE]</t>
-  </si>
-  <si>
     <t>REF_ZIPCODE</t>
   </si>
   <si>
-    <t>ZIPCODE</t>
-  </si>
-  <si>
     <t>JOIN</t>
   </si>
   <si>
-    <t>[MR_BUILDING_OWNERSHIP_CODE]</t>
-  </si>
-  <si>
     <t>OWNER_RELATIONSHIP</t>
   </si>
   <si>
-    <t>[IS_BANK_STMNT]</t>
-  </si>
-  <si>
-    <t>[CUST_BANK_ACC]</t>
-  </si>
-  <si>
-    <t>[IS_DEFAULT]</t>
+    <t>CUST_ADDR</t>
+  </si>
+  <si>
+    <t>MR_CUST_ADDR_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>MR_BUILDING_OWNERSHIP_CODE</t>
+  </si>
+  <si>
+    <t>CUST_BANK_ACC</t>
+  </si>
+  <si>
+    <t>IS_BANK_STMNT</t>
+  </si>
+  <si>
+    <t>IS_DEFAULT</t>
+  </si>
+  <si>
+    <t>BANK_ACC_NO</t>
+  </si>
+  <si>
+    <t>COY_TYPE</t>
+  </si>
+  <si>
+    <t>INVESTMENT_TYPE</t>
+  </si>
+  <si>
+    <t>CUST_COMPANY_CONTACT_PERSON</t>
+  </si>
+  <si>
+    <t>JOB_POSITION</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>CUST_RELATIONSHIP</t>
+  </si>
+  <si>
+    <t>LEGAL_DOC_TYPE</t>
+  </si>
+  <si>
+    <t>ASSET_ACCESSORY_CODE</t>
+  </si>
+  <si>
+    <t>ASSET_CATEGORY</t>
+  </si>
+  <si>
+    <t>LBPPMS_DEBT_GRP_CODE</t>
+  </si>
+  <si>
+    <t>LBPPMS_BIZ_SCL_CODE</t>
+  </si>
+  <si>
+    <t>CUST_OTHER_INFO</t>
+  </si>
+  <si>
+    <t>LBPPMS_BIZ_SCL</t>
+  </si>
+  <si>
+    <t>LBPPMS_DEBT_GRP</t>
+  </si>
+  <si>
+    <t>CUST_PERSONAL</t>
+  </si>
+  <si>
+    <t>IS_REST_IN_PEACE</t>
+  </si>
+  <si>
+    <t>MR_GENDER_CODE</t>
+  </si>
+  <si>
+    <t>MR_RELIGION_CODE</t>
+  </si>
+  <si>
+    <t>MR_EDUCATION_CODE</t>
+  </si>
+  <si>
+    <t>MR_NATIONALITY_CODE</t>
+  </si>
+  <si>
+    <t>MR_MARITAL_STAT_CODE</t>
+  </si>
+  <si>
+    <t>MR_SALUTATION_CODE</t>
+  </si>
+  <si>
+    <t>RELIGION</t>
+  </si>
+  <si>
+    <t>EDUCATION</t>
+  </si>
+  <si>
+    <t>NATIONALITY</t>
+  </si>
+  <si>
+    <t>MARITAL_STAT</t>
+  </si>
+  <si>
+    <t>SALUTATION</t>
+  </si>
+  <si>
+    <t>WNA_COUNTRY_CODE</t>
+  </si>
+  <si>
+    <t>REF_COUNTRY</t>
+  </si>
+  <si>
+    <t>COUNTRY_CODE</t>
+  </si>
+  <si>
+    <t>CUST_PERSONAL_EMERGENCY_CONTACT</t>
+  </si>
+  <si>
+    <t>MR_JOB_PROFESSION_CODE</t>
+  </si>
+  <si>
+    <t>MR_CUST_RELATIONSHIP_CODE</t>
+  </si>
+  <si>
+    <t>JOB_PROFESSION</t>
+  </si>
+  <si>
+    <t>NATIONALITY_COUNTRY_CODE</t>
+  </si>
+  <si>
+    <t>CUST_PERSONAL_FAMILY</t>
+  </si>
+  <si>
+    <t>MR_CUST_RELATIONSHIP</t>
+  </si>
+  <si>
+    <t>CUST_PERSONAL_FIN_DATA</t>
+  </si>
+  <si>
+    <t>IS_JOIN_INCOME</t>
+  </si>
+  <si>
+    <t>MR_SOURCE_OF_INCOME_CODE</t>
+  </si>
+  <si>
+    <t>SOURCE_OF_INCOME</t>
+  </si>
+  <si>
+    <t>CUST_PERSONAL_JOB_DATA</t>
+  </si>
+  <si>
+    <t>MR_JOB_POSITION_CODE</t>
+  </si>
+  <si>
+    <t>MR_JOB_STAT_CODE</t>
+  </si>
+  <si>
+    <t>MR_COY_SCALE_CODE</t>
+  </si>
+  <si>
+    <t>MR_INVESTMENT_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>IS_MF_EMP</t>
+  </si>
+  <si>
+    <t>IS_WELLKNOWN_COY</t>
+  </si>
+  <si>
+    <t>JOB_STAT</t>
+  </si>
+  <si>
+    <t>COY_SCALE</t>
+  </si>
+  <si>
+    <t>NEGATIVE_CUST</t>
+  </si>
+  <si>
+    <t>MR_NEG_CUST_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>MR_NEG_CUST_SOURCE_CODE</t>
+  </si>
+  <si>
+    <t>NEGATIVE_CUST_NO</t>
+  </si>
+  <si>
+    <t>NEGATIVE_DTA_SOURCE</t>
+  </si>
+  <si>
+    <t>NEGATIVE_TYPE</t>
+  </si>
+  <si>
+    <t>CABINET</t>
+  </si>
+  <si>
+    <t>CABINET_CODE</t>
+  </si>
+  <si>
+    <t>FILING</t>
+  </si>
+  <si>
+    <t>FILING_CODE</t>
+  </si>
+  <si>
+    <t>RACK</t>
+  </si>
+  <si>
+    <t>RACK_CODE</t>
+  </si>
+  <si>
+    <t>LBPPMS_BIZ_SUSTAIN</t>
+  </si>
+  <si>
+    <t>LBPPMS_BIZ_SUSTAIN_CODE</t>
+  </si>
+  <si>
+    <t>LBPPMS_CNTRPRT</t>
+  </si>
+  <si>
+    <t>LBPPMS_CNTRPRT_CODE</t>
+  </si>
+  <si>
+    <t>REF_ACCT_BOOK</t>
+  </si>
+  <si>
+    <t>CENTER_GRP</t>
+  </si>
+  <si>
+    <t>CENTER_GRP_CODE</t>
+  </si>
+  <si>
+    <t>MR_CENTER_GRP_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>CENTER_GRP_TYPE</t>
+  </si>
+  <si>
+    <t>IS_COORDINATOR</t>
+  </si>
+  <si>
+    <t>CENTER_GRP_OFFICE_MBR</t>
+  </si>
+  <si>
+    <t>EMP_BANK_ACC</t>
+  </si>
+  <si>
+    <t>REF_EMP</t>
+  </si>
+  <si>
+    <t>EMP_NO</t>
+  </si>
+  <si>
+    <t>IS_EXT</t>
+  </si>
+  <si>
+    <t>IS_LEAVE</t>
+  </si>
+  <si>
+    <t>REF_JOB_TITLE</t>
+  </si>
+  <si>
+    <t>JOB_TITLE_CODE</t>
+  </si>
+  <si>
+    <t>REF_OFFICE</t>
+  </si>
+  <si>
+    <t>MR_KONVEN_SYARIAH_CODE</t>
+  </si>
+  <si>
+    <t>MR_OFFICE_CLASS_CODE</t>
+  </si>
+  <si>
+    <t>MR_OFFICE_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>OFFICE_CODE</t>
+  </si>
+  <si>
+    <t>IS_OFFICE_CLOSE</t>
+  </si>
+  <si>
+    <t>IS_ALLOW_APP_CREATED</t>
+  </si>
+  <si>
+    <t>IS_VIRTUAL_OFFICE</t>
+  </si>
+  <si>
+    <t>IS_NPWP</t>
+  </si>
+  <si>
+    <t>IS_HAVE_CASHIER</t>
+  </si>
+  <si>
+    <t>OFFICE_CLASS</t>
+  </si>
+  <si>
+    <t>KONVEN_SYARIAH</t>
+  </si>
+  <si>
+    <t>OFFICE_TYPE</t>
+  </si>
+  <si>
+    <t>REF_OFFICE_AREA</t>
+  </si>
+  <si>
+    <t>AREA_CODE</t>
+  </si>
+  <si>
+    <t>REF_ROLE</t>
+  </si>
+  <si>
+    <t>ROLE_CODE</t>
+  </si>
+  <si>
+    <t>SURVEYOR</t>
+  </si>
+  <si>
+    <t>SURVEYOR_NO</t>
+  </si>
+  <si>
+    <t>MR_SURVEYOR_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>SURVEY_TYPE</t>
+  </si>
+  <si>
+    <t>REF_BIZ_UNIT</t>
+  </si>
+  <si>
+    <t>BIZ_UNIT_CODE</t>
+  </si>
+  <si>
+    <t>REF_LOB</t>
+  </si>
+  <si>
+    <t>LOB_CODE</t>
+  </si>
+  <si>
+    <t>REF_MASTER_TYPE</t>
+  </si>
+  <si>
+    <t>REF_MASTER_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>REF_TC</t>
+  </si>
+  <si>
+    <t>TC_CODE</t>
+  </si>
+  <si>
+    <t>IS_MANDATORY</t>
+  </si>
+  <si>
+    <t>HOLIDAY_SCHM_D</t>
+  </si>
+  <si>
+    <t>IS_PUBLIC_HOLIDAY</t>
+  </si>
+  <si>
+    <t>HOLIDAY_SCHM_H</t>
+  </si>
+  <si>
+    <t>HOLIDAY_SCHM_CODE</t>
+  </si>
+  <si>
+    <t>REF_ATTR</t>
+  </si>
+  <si>
+    <t>ATTR_CODE</t>
+  </si>
+  <si>
+    <t>REF_BANK</t>
+  </si>
+  <si>
+    <t>BANK_CODE</t>
+  </si>
+  <si>
+    <t>REF_CURR</t>
+  </si>
+  <si>
+    <t>CURR_CODE</t>
+  </si>
+  <si>
+    <t>REF_ECONOMIC_SECTOR</t>
+  </si>
+  <si>
+    <t>ECONOMIC_SECTOR_CODE</t>
+  </si>
+  <si>
+    <t>REF_INDUSTRY_TYPE</t>
+  </si>
+  <si>
+    <t>INDUSTRY_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>REF_MASTER</t>
+  </si>
+  <si>
+    <t>MASTER_CODE</t>
+  </si>
+  <si>
+    <t>IS_DELETABLE</t>
+  </si>
+  <si>
+    <t>IS_DEFAULT_VALUE</t>
+  </si>
+  <si>
+    <t>REF_PROFESSION</t>
+  </si>
+  <si>
+    <t>PROFESSION_CODE</t>
+  </si>
+  <si>
+    <t>REF_PROV_DISTRICT</t>
+  </si>
+  <si>
+    <t>PROV_DISTRICT_CODE</t>
+  </si>
+  <si>
+    <t>REF_SUPPL_EMP_POSITION_X</t>
+  </si>
+  <si>
+    <t>MR_VENDOR_EMP_POSITION_CODE</t>
+  </si>
+  <si>
+    <t>VENDOR_EMP_POSITION</t>
+  </si>
+  <si>
+    <t>REF_USER</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>IS_LOCKED_OUT</t>
+  </si>
+  <si>
+    <t>IS_LOGGED_IN</t>
+  </si>
+  <si>
+    <t>IS_NEED_UPDATE_PASSWORD</t>
+  </si>
+  <si>
+    <t>REF_USER_ROLE</t>
+  </si>
+  <si>
+    <t>WORKING_HOUR_SCHM_H</t>
+  </si>
+  <si>
+    <t>WORKING_HOUR_SCHM_CODE</t>
+  </si>
+  <si>
+    <t>VENDOR</t>
+  </si>
+  <si>
+    <t>VENDOR_CODE</t>
+  </si>
+  <si>
+    <t>MR_VENDOR_CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>MR_VENDOR_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>MR_TAX_CALC_METHOD_CODE</t>
+  </si>
+  <si>
+    <t>IS_VAT</t>
+  </si>
+  <si>
+    <t>MR_DUPLICATE_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>MR_NATIONALTIY_CODE</t>
+  </si>
+  <si>
+    <t>IS_NPWP_EXIST</t>
+  </si>
+  <si>
+    <t>MR_TAX_PGRSV_SCHEME_NAME</t>
+  </si>
+  <si>
+    <t>MR_VENDOR_CLASS</t>
+  </si>
+  <si>
+    <t>IS_ONE_AFFILIATE</t>
+  </si>
+  <si>
+    <t>VENDOR_CATEGORY</t>
+  </si>
+  <si>
+    <t>VENDOR_TYPE</t>
+  </si>
+  <si>
+    <t>TAX_CALC_METHOD</t>
+  </si>
+  <si>
+    <t>DUPLICATE_STATUS</t>
+  </si>
+  <si>
+    <t>TAX_PGRSV_SCHEME</t>
+  </si>
+  <si>
+    <t>TAX_METHOD</t>
+  </si>
+  <si>
+    <t>VENDOR_CLASS</t>
+  </si>
+  <si>
+    <t>VENDOR_ADDR</t>
+  </si>
+  <si>
+    <t>MR_ADDR_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>ADDR_TYPE</t>
+  </si>
+  <si>
+    <t>VENDOR_AREA</t>
+  </si>
+  <si>
+    <t>VENDOR_ATTR</t>
+  </si>
+  <si>
+    <t>VENDOR_ATTR_CODE</t>
+  </si>
+  <si>
+    <t>VENDOR_BANK_ACC</t>
+  </si>
+  <si>
+    <t>BANK_ACCOUNT_NO</t>
+  </si>
+  <si>
+    <t>VENDOR_CONTACT_PERSON</t>
+  </si>
+  <si>
+    <t>MR_EMPLOYEE_POSITION</t>
+  </si>
+  <si>
+    <t>IS_OWNER</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_POSITION</t>
+  </si>
+  <si>
+    <t>VENDOR_EMP</t>
+  </si>
+  <si>
+    <t>VENDOR_EMP_NO</t>
+  </si>
+  <si>
+    <t>IS_CONTACT_PERSON</t>
+  </si>
+  <si>
+    <t>MR_TAX_PGRSV_SCHENME_CODE</t>
+  </si>
+  <si>
+    <t>TAX_PGRSV_SCHENME</t>
+  </si>
+  <si>
+    <t>VENDOR_INSCO_BRANCH_SUM_INS</t>
+  </si>
+  <si>
+    <t>INS_ASSET_CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>MR_ASSET_CONDITION_CODE</t>
+  </si>
+  <si>
+    <t>ASSET_CONDITION</t>
+  </si>
+  <si>
+    <t>VENDOR_OFFICE_MBR</t>
+  </si>
+  <si>
+    <t>VENDOR_SCHM</t>
+  </si>
+  <si>
+    <t>VENDOR_SCHM_CODE</t>
+  </si>
+  <si>
+    <t>VENDOR_SCHM_MBR</t>
+  </si>
+  <si>
+    <t>CUST_COMPANY_LEGAL_DOC</t>
+  </si>
+  <si>
+    <t>DOC_NO</t>
+  </si>
+  <si>
+    <t>CUST_COMPANY</t>
+  </si>
+  <si>
+    <t>IS_AFFILIATED</t>
+  </si>
+  <si>
+    <t>IS_TAXABLE</t>
+  </si>
+  <si>
+    <t>IS_EXP_DT_MANDATORY</t>
+  </si>
+  <si>
+    <t>CUST_COMPANY_MGMNT_SHRHOLDER</t>
+  </si>
+  <si>
+    <t>IS_SIGNER</t>
+  </si>
+  <si>
+    <t>CUST_GRP</t>
+  </si>
+  <si>
+    <t>MR_COMPANY_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>MR_LEGAL_DOC_TYPE_CODE</t>
   </si>
 </sst>
 </file>
@@ -271,6 +859,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F222" totalsRowShown="0">
+  <autoFilter ref="A1:F222"/>
+  <sortState ref="A2:F222">
+    <sortCondition ref="F1:F222"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="tableName"/>
+    <tableColumn id="2" name="columnName"/>
+    <tableColumn id="3" name="joinTableName"/>
+    <tableColumn id="4" name="joinColumnName"/>
+    <tableColumn id="5" name="refMasterType"/>
+    <tableColumn id="6" name="type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,18 +1142,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="48" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
@@ -560,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -577,15 +1183,15 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -596,32 +1202,32 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -629,87 +1235,87 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -717,10 +1323,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -728,54 +1334,54 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="F16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="F19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -783,10 +1389,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -794,87 +1400,87 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="F25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="F27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="F28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -882,21 +1488,21 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -904,192 +1510,2338 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="F35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="F37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="F38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="F39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="F40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" t="s">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="F44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="F45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>231</v>
+      </c>
+      <c r="B47" t="s">
+        <v>232</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48" t="s">
+        <v>238</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" t="s">
+        <v>248</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" t="s">
+        <v>48</v>
+      </c>
+      <c r="F76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>59</v>
+      </c>
+      <c r="B78" t="s">
+        <v>60</v>
+      </c>
+      <c r="F78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>252</v>
+      </c>
+      <c r="B81" t="s">
+        <v>253</v>
+      </c>
+      <c r="F81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82" t="s">
+        <v>254</v>
+      </c>
+      <c r="F82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>250</v>
+      </c>
+      <c r="B83" t="s">
+        <v>255</v>
+      </c>
+      <c r="F83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>256</v>
+      </c>
+      <c r="B84" t="s">
+        <v>257</v>
+      </c>
+      <c r="F84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>256</v>
+      </c>
+      <c r="B85" t="s">
+        <v>235</v>
+      </c>
+      <c r="F85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>258</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" t="s">
+        <v>78</v>
+      </c>
+      <c r="F88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+      <c r="F89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" t="s">
+        <v>109</v>
+      </c>
+      <c r="F90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" t="s">
+        <v>134</v>
+      </c>
+      <c r="F98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" t="s">
+        <v>139</v>
+      </c>
+      <c r="F99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" t="s">
+        <v>140</v>
+      </c>
+      <c r="F100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" t="s">
+        <v>148</v>
+      </c>
+      <c r="F104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" t="s">
+        <v>149</v>
+      </c>
+      <c r="F105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" t="s">
+        <v>150</v>
+      </c>
+      <c r="F106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>143</v>
+      </c>
+      <c r="B107" t="s">
+        <v>151</v>
+      </c>
+      <c r="F107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>143</v>
+      </c>
+      <c r="B108" t="s">
+        <v>152</v>
+      </c>
+      <c r="F108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>156</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="F110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>170</v>
+      </c>
+      <c r="B115" t="s">
+        <v>172</v>
+      </c>
+      <c r="F115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>170</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>173</v>
+      </c>
+      <c r="B117" t="s">
+        <v>174</v>
+      </c>
+      <c r="F117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>175</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>177</v>
+      </c>
+      <c r="B119" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>177</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>177</v>
+      </c>
+      <c r="B121" t="s">
+        <v>172</v>
+      </c>
+      <c r="F121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>179</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>183</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="F124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>185</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>187</v>
+      </c>
+      <c r="B126" t="s">
+        <v>189</v>
+      </c>
+      <c r="F126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>187</v>
+      </c>
+      <c r="B127" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>187</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="F128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>187</v>
+      </c>
+      <c r="B129" t="s">
+        <v>190</v>
+      </c>
+      <c r="F129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>193</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>198</v>
+      </c>
+      <c r="B131" t="s">
+        <v>200</v>
+      </c>
+      <c r="F131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>198</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>198</v>
+      </c>
+      <c r="B133" t="s">
+        <v>201</v>
+      </c>
+      <c r="F133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>198</v>
+      </c>
+      <c r="B134" t="s">
+        <v>202</v>
+      </c>
+      <c r="F134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>203</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>53</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="F136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>204</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>206</v>
+      </c>
+      <c r="B138" t="s">
+        <v>217</v>
+      </c>
+      <c r="F138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>206</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>206</v>
+      </c>
+      <c r="B140" t="s">
+        <v>211</v>
+      </c>
+      <c r="F140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>206</v>
+      </c>
+      <c r="B141" t="s">
+        <v>214</v>
+      </c>
+      <c r="F141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>228</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="F142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>229</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>231</v>
+      </c>
+      <c r="B144" t="s">
+        <v>61</v>
+      </c>
+      <c r="F144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>233</v>
+      </c>
+      <c r="B145" t="s">
+        <v>235</v>
+      </c>
+      <c r="F145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>237</v>
+      </c>
+      <c r="B146" t="s">
+        <v>214</v>
+      </c>
+      <c r="F146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>237</v>
+      </c>
+      <c r="B147" t="s">
+        <v>239</v>
+      </c>
+      <c r="F147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>237</v>
+      </c>
+      <c r="B148" t="s">
+        <v>235</v>
+      </c>
+      <c r="F148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>237</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="F149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>246</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="F150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>247</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>249</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>74</v>
+      </c>
+      <c r="B153" t="s">
+        <v>72</v>
+      </c>
+      <c r="C153" t="s">
+        <v>76</v>
+      </c>
+      <c r="D153" t="s">
+        <v>72</v>
+      </c>
+      <c r="F153" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>74</v>
+      </c>
+      <c r="B154" t="s">
+        <v>73</v>
+      </c>
+      <c r="C154" t="s">
+        <v>75</v>
+      </c>
+      <c r="D154" t="s">
+        <v>73</v>
+      </c>
+      <c r="F154" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>77</v>
+      </c>
+      <c r="B155" t="s">
+        <v>90</v>
+      </c>
+      <c r="C155" t="s">
+        <v>91</v>
+      </c>
+      <c r="D155" t="s">
+        <v>92</v>
+      </c>
+      <c r="F155" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>93</v>
+      </c>
+      <c r="B156" t="s">
+        <v>97</v>
+      </c>
+      <c r="C156" t="s">
+        <v>91</v>
+      </c>
+      <c r="D156" t="s">
+        <v>92</v>
+      </c>
+      <c r="F156" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>187</v>
+      </c>
+      <c r="B157" t="s">
+        <v>169</v>
+      </c>
+      <c r="C157" t="s">
+        <v>168</v>
+      </c>
+      <c r="D157" t="s">
+        <v>169</v>
+      </c>
+      <c r="F157" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>242</v>
+      </c>
+      <c r="B158" t="s">
+        <v>243</v>
+      </c>
+      <c r="C158" t="s">
+        <v>71</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>39</v>
+      </c>
+      <c r="B159" t="s">
+        <v>41</v>
+      </c>
+      <c r="E159" t="s">
+        <v>35</v>
+      </c>
+      <c r="F159" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>39</v>
+      </c>
+      <c r="B160" t="s">
+        <v>42</v>
+      </c>
+      <c r="E160" t="s">
+        <v>37</v>
+      </c>
+      <c r="F160" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>39</v>
+      </c>
+      <c r="B161" t="s">
+        <v>43</v>
+      </c>
+      <c r="E161" t="s">
+        <v>36</v>
+      </c>
+      <c r="F161" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>56</v>
+      </c>
+      <c r="B162" t="s">
+        <v>57</v>
+      </c>
+      <c r="E162" t="s">
+        <v>52</v>
+      </c>
+      <c r="F162" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>56</v>
+      </c>
+      <c r="B163" t="s">
+        <v>58</v>
+      </c>
+      <c r="E163" t="s">
+        <v>55</v>
+      </c>
+      <c r="F163" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>252</v>
+      </c>
+      <c r="B164" t="s">
+        <v>259</v>
+      </c>
+      <c r="E164" t="s">
         <v>63</v>
       </c>
-      <c r="B46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" t="s">
-        <v>6</v>
+      <c r="F164" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>252</v>
+      </c>
+      <c r="B165" t="s">
+        <v>108</v>
+      </c>
+      <c r="E165" t="s">
+        <v>64</v>
+      </c>
+      <c r="F165" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>65</v>
+      </c>
+      <c r="B166" t="s">
+        <v>105</v>
+      </c>
+      <c r="E166" t="s">
+        <v>66</v>
+      </c>
+      <c r="F166" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>65</v>
+      </c>
+      <c r="B167" t="s">
+        <v>79</v>
+      </c>
+      <c r="E167" t="s">
+        <v>67</v>
+      </c>
+      <c r="F167" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>65</v>
+      </c>
+      <c r="B168" t="s">
+        <v>95</v>
+      </c>
+      <c r="E168" t="s">
+        <v>68</v>
+      </c>
+      <c r="F168" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>65</v>
+      </c>
+      <c r="B169" t="s">
+        <v>43</v>
+      </c>
+      <c r="E169" t="s">
+        <v>36</v>
+      </c>
+      <c r="F169" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>250</v>
+      </c>
+      <c r="B170" t="s">
+        <v>260</v>
+      </c>
+      <c r="E170" t="s">
+        <v>69</v>
+      </c>
+      <c r="F170" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>256</v>
+      </c>
+      <c r="B171" t="s">
+        <v>105</v>
+      </c>
+      <c r="E171" t="s">
+        <v>66</v>
+      </c>
+      <c r="F171" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>258</v>
+      </c>
+      <c r="B172" t="s">
+        <v>95</v>
+      </c>
+      <c r="E172" t="s">
+        <v>68</v>
+      </c>
+      <c r="F172" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>77</v>
+      </c>
+      <c r="B173" t="s">
+        <v>79</v>
+      </c>
+      <c r="E173" t="s">
+        <v>67</v>
+      </c>
+      <c r="F173" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>77</v>
+      </c>
+      <c r="B174" t="s">
+        <v>80</v>
+      </c>
+      <c r="E174" t="s">
+        <v>85</v>
+      </c>
+      <c r="F174" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>77</v>
+      </c>
+      <c r="B175" t="s">
+        <v>81</v>
+      </c>
+      <c r="E175" t="s">
+        <v>86</v>
+      </c>
+      <c r="F175" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>77</v>
+      </c>
+      <c r="B176" t="s">
+        <v>82</v>
+      </c>
+      <c r="E176" t="s">
+        <v>87</v>
+      </c>
+      <c r="F176" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>77</v>
+      </c>
+      <c r="B177" t="s">
+        <v>83</v>
+      </c>
+      <c r="E177" t="s">
+        <v>88</v>
+      </c>
+      <c r="F177" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>77</v>
+      </c>
+      <c r="B178" t="s">
+        <v>84</v>
+      </c>
+      <c r="E178" t="s">
+        <v>89</v>
+      </c>
+      <c r="F178" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>93</v>
+      </c>
+      <c r="B179" t="s">
+        <v>43</v>
+      </c>
+      <c r="E179" t="s">
+        <v>36</v>
+      </c>
+      <c r="F179" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>93</v>
+      </c>
+      <c r="B180" t="s">
+        <v>79</v>
+      </c>
+      <c r="E180" t="s">
+        <v>67</v>
+      </c>
+      <c r="F180" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>93</v>
+      </c>
+      <c r="B181" t="s">
+        <v>80</v>
+      </c>
+      <c r="E181" t="s">
+        <v>85</v>
+      </c>
+      <c r="F181" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>93</v>
+      </c>
+      <c r="B182" t="s">
+        <v>81</v>
+      </c>
+      <c r="E182" t="s">
+        <v>86</v>
+      </c>
+      <c r="F182" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>93</v>
+      </c>
+      <c r="B183" t="s">
+        <v>94</v>
+      </c>
+      <c r="E183" t="s">
+        <v>96</v>
+      </c>
+      <c r="F183" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>93</v>
+      </c>
+      <c r="B184" t="s">
+        <v>83</v>
+      </c>
+      <c r="E184" t="s">
+        <v>88</v>
+      </c>
+      <c r="F184" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>93</v>
+      </c>
+      <c r="B185" t="s">
+        <v>82</v>
+      </c>
+      <c r="E185" t="s">
+        <v>87</v>
+      </c>
+      <c r="F185" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>93</v>
+      </c>
+      <c r="B186" t="s">
+        <v>95</v>
+      </c>
+      <c r="E186" t="s">
+        <v>68</v>
+      </c>
+      <c r="F186" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>98</v>
+      </c>
+      <c r="B187" t="s">
+        <v>99</v>
+      </c>
+      <c r="E187" t="s">
+        <v>68</v>
+      </c>
+      <c r="F187" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>100</v>
+      </c>
+      <c r="B188" t="s">
+        <v>102</v>
+      </c>
+      <c r="E188" t="s">
+        <v>103</v>
+      </c>
+      <c r="F188" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>104</v>
+      </c>
+      <c r="B189" t="s">
+        <v>105</v>
+      </c>
+      <c r="E189" t="s">
+        <v>66</v>
+      </c>
+      <c r="F189" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>104</v>
+      </c>
+      <c r="B190" t="s">
+        <v>106</v>
+      </c>
+      <c r="E190" t="s">
+        <v>111</v>
+      </c>
+      <c r="F190" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>104</v>
+      </c>
+      <c r="B191" t="s">
+        <v>107</v>
+      </c>
+      <c r="E191" t="s">
+        <v>112</v>
+      </c>
+      <c r="F191" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>104</v>
+      </c>
+      <c r="B192" t="s">
+        <v>108</v>
+      </c>
+      <c r="E192" t="s">
+        <v>64</v>
+      </c>
+      <c r="F192" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>113</v>
+      </c>
+      <c r="B193" t="s">
+        <v>41</v>
+      </c>
+      <c r="E193" t="s">
+        <v>35</v>
+      </c>
+      <c r="F193" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>113</v>
+      </c>
+      <c r="B194" t="s">
+        <v>43</v>
+      </c>
+      <c r="E194" t="s">
+        <v>36</v>
+      </c>
+      <c r="F194" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>113</v>
+      </c>
+      <c r="B195" t="s">
+        <v>79</v>
+      </c>
+      <c r="E195" t="s">
+        <v>67</v>
+      </c>
+      <c r="F195" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>113</v>
+      </c>
+      <c r="B196" t="s">
+        <v>114</v>
+      </c>
+      <c r="E196" t="s">
+        <v>118</v>
+      </c>
+      <c r="F196" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>113</v>
+      </c>
+      <c r="B197" t="s">
+        <v>115</v>
+      </c>
+      <c r="E197" t="s">
+        <v>117</v>
+      </c>
+      <c r="F197" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>130</v>
+      </c>
+      <c r="B198" t="s">
+        <v>132</v>
+      </c>
+      <c r="E198" t="s">
+        <v>133</v>
+      </c>
+      <c r="F198" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>137</v>
+      </c>
+      <c r="B199" t="s">
+        <v>43</v>
+      </c>
+      <c r="E199" t="s">
+        <v>36</v>
+      </c>
+      <c r="F199" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>143</v>
+      </c>
+      <c r="B200" t="s">
+        <v>144</v>
+      </c>
+      <c r="E200" t="s">
+        <v>154</v>
+      </c>
+      <c r="F200" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>143</v>
+      </c>
+      <c r="B201" t="s">
+        <v>145</v>
+      </c>
+      <c r="E201" t="s">
+        <v>153</v>
+      </c>
+      <c r="F201" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>143</v>
+      </c>
+      <c r="B202" t="s">
+        <v>146</v>
+      </c>
+      <c r="E202" t="s">
+        <v>155</v>
+      </c>
+      <c r="F202" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>160</v>
+      </c>
+      <c r="B203" t="s">
+        <v>162</v>
+      </c>
+      <c r="E203" t="s">
+        <v>163</v>
+      </c>
+      <c r="F203" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>191</v>
+      </c>
+      <c r="B204" t="s">
+        <v>42</v>
+      </c>
+      <c r="E204" t="s">
+        <v>37</v>
+      </c>
+      <c r="F204" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>195</v>
+      </c>
+      <c r="B205" t="s">
+        <v>196</v>
+      </c>
+      <c r="E205" t="s">
+        <v>197</v>
+      </c>
+      <c r="F205" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" t="s">
+        <v>208</v>
+      </c>
+      <c r="E206" t="s">
+        <v>218</v>
+      </c>
+      <c r="F206" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>209</v>
+      </c>
+      <c r="E207" t="s">
+        <v>219</v>
+      </c>
+      <c r="F207" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>43</v>
+      </c>
+      <c r="E208" t="s">
+        <v>36</v>
+      </c>
+      <c r="F208" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>206</v>
+      </c>
+      <c r="B209" t="s">
+        <v>210</v>
+      </c>
+      <c r="E209" t="s">
+        <v>223</v>
+      </c>
+      <c r="F209" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>206</v>
+      </c>
+      <c r="B210" t="s">
+        <v>212</v>
+      </c>
+      <c r="E210" t="s">
+        <v>221</v>
+      </c>
+      <c r="F210" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>206</v>
+      </c>
+      <c r="B211" t="s">
+        <v>213</v>
+      </c>
+      <c r="E211" t="s">
+        <v>87</v>
+      </c>
+      <c r="F211" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>206</v>
+      </c>
+      <c r="B212" t="s">
+        <v>216</v>
+      </c>
+      <c r="E212" t="s">
+        <v>224</v>
+      </c>
+      <c r="F212" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>225</v>
+      </c>
+      <c r="B213" t="s">
+        <v>226</v>
+      </c>
+      <c r="E213" t="s">
+        <v>227</v>
+      </c>
+      <c r="F213" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>229</v>
+      </c>
+      <c r="B214" t="s">
+        <v>208</v>
+      </c>
+      <c r="E214" t="s">
+        <v>218</v>
+      </c>
+      <c r="F214" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>233</v>
+      </c>
+      <c r="B215" t="s">
+        <v>234</v>
+      </c>
+      <c r="E215" t="s">
+        <v>236</v>
+      </c>
+      <c r="F215" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>237</v>
+      </c>
+      <c r="B216" t="s">
+        <v>43</v>
+      </c>
+      <c r="E216" t="s">
+        <v>36</v>
+      </c>
+      <c r="F216" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>237</v>
+      </c>
+      <c r="B217" t="s">
+        <v>196</v>
+      </c>
+      <c r="E217" t="s">
+        <v>197</v>
+      </c>
+      <c r="F217" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>237</v>
+      </c>
+      <c r="B218" t="s">
+        <v>210</v>
+      </c>
+      <c r="E218" t="s">
+        <v>220</v>
+      </c>
+      <c r="F218" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>237</v>
+      </c>
+      <c r="B219" t="s">
+        <v>240</v>
+      </c>
+      <c r="E219" t="s">
+        <v>241</v>
+      </c>
+      <c r="F219" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>237</v>
+      </c>
+      <c r="B220" t="s">
+        <v>215</v>
+      </c>
+      <c r="E220" t="s">
+        <v>222</v>
+      </c>
+      <c r="F220" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>242</v>
+      </c>
+      <c r="B221" t="s">
+        <v>244</v>
+      </c>
+      <c r="E221" t="s">
+        <v>245</v>
+      </c>
+      <c r="F221" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>247</v>
+      </c>
+      <c r="B222" t="s">
+        <v>208</v>
+      </c>
+      <c r="E222" t="s">
+        <v>218</v>
+      </c>
+      <c r="F222" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -32,9 +32,6 @@
     <t>columnName</t>
   </si>
   <si>
-    <t>refMasterType</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -807,6 +804,9 @@
   </si>
   <si>
     <t>MR_LEGAL_DOC_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>grpCode</t>
   </si>
 </sst>
 </file>
@@ -872,7 +872,7 @@
     <tableColumn id="2" name="columnName"/>
     <tableColumn id="3" name="joinTableName"/>
     <tableColumn id="4" name="joinColumnName"/>
-    <tableColumn id="5" name="refMasterType"/>
+    <tableColumn id="5" name="grpCode"/>
     <tableColumn id="6" name="type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,2675 +1166,2675 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
       <c r="E1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" t="s">
         <v>250</v>
       </c>
-      <c r="B11" t="s">
-        <v>251</v>
-      </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
         <v>119</v>
       </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
         <v>121</v>
       </c>
-      <c r="B15" t="s">
-        <v>122</v>
-      </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
         <v>123</v>
       </c>
-      <c r="B16" t="s">
-        <v>124</v>
-      </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
         <v>125</v>
       </c>
-      <c r="B18" t="s">
-        <v>126</v>
-      </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
         <v>127</v>
       </c>
-      <c r="B19" t="s">
-        <v>128</v>
-      </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" t="s">
-        <v>131</v>
-      </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" t="s">
         <v>137</v>
       </c>
-      <c r="B23" t="s">
-        <v>138</v>
-      </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" t="s">
         <v>141</v>
       </c>
-      <c r="B24" t="s">
-        <v>142</v>
-      </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s">
         <v>156</v>
       </c>
-      <c r="B26" t="s">
-        <v>157</v>
-      </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s">
         <v>158</v>
       </c>
-      <c r="B27" t="s">
-        <v>159</v>
-      </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" t="s">
         <v>160</v>
       </c>
-      <c r="B28" t="s">
-        <v>161</v>
-      </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
         <v>164</v>
       </c>
-      <c r="B29" t="s">
-        <v>165</v>
-      </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" t="s">
         <v>166</v>
       </c>
-      <c r="B30" t="s">
-        <v>167</v>
-      </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" t="s">
         <v>168</v>
       </c>
-      <c r="B31" t="s">
-        <v>169</v>
-      </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" t="s">
         <v>170</v>
       </c>
-      <c r="B32" t="s">
-        <v>171</v>
-      </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" t="s">
         <v>175</v>
       </c>
-      <c r="B33" t="s">
-        <v>176</v>
-      </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" t="s">
         <v>177</v>
       </c>
-      <c r="B34" t="s">
-        <v>178</v>
-      </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" t="s">
         <v>179</v>
       </c>
-      <c r="B35" t="s">
-        <v>180</v>
-      </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
         <v>91</v>
       </c>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
       <c r="F36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" t="s">
         <v>181</v>
       </c>
-      <c r="B37" t="s">
-        <v>182</v>
-      </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" t="s">
         <v>183</v>
       </c>
-      <c r="B38" t="s">
-        <v>184</v>
-      </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" t="s">
         <v>185</v>
       </c>
-      <c r="B39" t="s">
-        <v>186</v>
-      </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" t="s">
         <v>187</v>
       </c>
-      <c r="B40" t="s">
-        <v>188</v>
-      </c>
       <c r="F40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" t="s">
         <v>191</v>
       </c>
-      <c r="B41" t="s">
-        <v>192</v>
-      </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" t="s">
         <v>193</v>
       </c>
-      <c r="B42" t="s">
-        <v>194</v>
-      </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" t="s">
         <v>198</v>
       </c>
-      <c r="B43" t="s">
-        <v>199</v>
-      </c>
       <c r="F43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" t="s">
         <v>204</v>
       </c>
-      <c r="B44" t="s">
-        <v>205</v>
-      </c>
       <c r="F44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" t="s">
         <v>206</v>
       </c>
-      <c r="B45" t="s">
-        <v>207</v>
-      </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" t="s">
         <v>229</v>
       </c>
-      <c r="B46" t="s">
-        <v>230</v>
-      </c>
       <c r="F46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" t="s">
         <v>231</v>
       </c>
-      <c r="B47" t="s">
-        <v>232</v>
-      </c>
       <c r="F47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>236</v>
+      </c>
+      <c r="B48" t="s">
         <v>237</v>
       </c>
-      <c r="B48" t="s">
-        <v>238</v>
-      </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" t="s">
         <v>247</v>
       </c>
-      <c r="B49" t="s">
-        <v>248</v>
-      </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
         <v>9</v>
       </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
       <c r="F51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
       <c r="F53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
         <v>22</v>
       </c>
-      <c r="B63" t="s">
-        <v>23</v>
-      </c>
       <c r="F63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" t="s">
         <v>59</v>
       </c>
-      <c r="B78" t="s">
-        <v>60</v>
-      </c>
       <c r="F78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>251</v>
+      </c>
+      <c r="B81" t="s">
         <v>252</v>
       </c>
-      <c r="B81" t="s">
-        <v>253</v>
-      </c>
       <c r="F81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B83" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84" t="s">
         <v>256</v>
       </c>
-      <c r="B84" t="s">
-        <v>257</v>
-      </c>
       <c r="F84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" t="s">
         <v>77</v>
       </c>
-      <c r="B88" t="s">
-        <v>78</v>
-      </c>
       <c r="F88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" t="s">
         <v>100</v>
       </c>
-      <c r="B89" t="s">
-        <v>101</v>
-      </c>
       <c r="F89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B104" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B105" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B108" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>172</v>
+      </c>
+      <c r="B117" t="s">
         <v>173</v>
       </c>
-      <c r="B117" t="s">
-        <v>174</v>
-      </c>
       <c r="F117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B121" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B129" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B131" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B133" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B134" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B140" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B141" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B144" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B145" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B146" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B147" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B148" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B153" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C153" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D153" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>73</v>
+      </c>
+      <c r="B154" t="s">
+        <v>72</v>
+      </c>
+      <c r="C154" t="s">
         <v>74</v>
       </c>
-      <c r="B154" t="s">
-        <v>73</v>
-      </c>
-      <c r="C154" t="s">
-        <v>75</v>
-      </c>
       <c r="D154" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F154" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B155" t="s">
+        <v>89</v>
+      </c>
+      <c r="C155" t="s">
         <v>90</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>91</v>
       </c>
-      <c r="D155" t="s">
-        <v>92</v>
-      </c>
       <c r="F155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B156" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C156" t="s">
+        <v>90</v>
+      </c>
+      <c r="D156" t="s">
         <v>91</v>
       </c>
-      <c r="D156" t="s">
-        <v>92</v>
-      </c>
       <c r="F156" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B157" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C157" t="s">
+        <v>167</v>
+      </c>
+      <c r="D157" t="s">
         <v>168</v>
       </c>
-      <c r="D157" t="s">
-        <v>169</v>
-      </c>
       <c r="F157" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>241</v>
+      </c>
+      <c r="B158" t="s">
         <v>242</v>
       </c>
-      <c r="B158" t="s">
-        <v>243</v>
-      </c>
       <c r="C158" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F158" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>55</v>
+      </c>
+      <c r="B162" t="s">
         <v>56</v>
       </c>
-      <c r="B162" t="s">
-        <v>57</v>
-      </c>
       <c r="E162" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B163" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E163" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B164" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E164" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B165" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E165" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>64</v>
+      </c>
+      <c r="B166" t="s">
+        <v>104</v>
+      </c>
+      <c r="E166" t="s">
         <v>65</v>
       </c>
-      <c r="B166" t="s">
-        <v>105</v>
-      </c>
-      <c r="E166" t="s">
-        <v>66</v>
-      </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B167" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E167" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B168" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E168" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B170" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E170" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B171" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E171" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B172" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E172" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B173" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E173" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B174" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E174" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B175" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E175" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B176" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E176" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B177" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E177" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B178" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E178" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B179" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B180" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E180" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B181" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E181" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B182" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E182" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>92</v>
+      </c>
+      <c r="B183" t="s">
         <v>93</v>
       </c>
-      <c r="B183" t="s">
-        <v>94</v>
-      </c>
       <c r="E183" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B184" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E184" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B185" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E185" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B186" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E186" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>97</v>
+      </c>
+      <c r="B187" t="s">
         <v>98</v>
       </c>
-      <c r="B187" t="s">
-        <v>99</v>
-      </c>
       <c r="E187" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B188" t="s">
+        <v>101</v>
+      </c>
+      <c r="E188" t="s">
         <v>102</v>
       </c>
-      <c r="E188" t="s">
-        <v>103</v>
-      </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>103</v>
+      </c>
+      <c r="B189" t="s">
         <v>104</v>
       </c>
-      <c r="B189" t="s">
-        <v>105</v>
-      </c>
       <c r="E189" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B190" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E190" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B191" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E191" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B192" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E192" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B193" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B194" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B195" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E195" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>112</v>
+      </c>
+      <c r="B196" t="s">
         <v>113</v>
       </c>
-      <c r="B196" t="s">
-        <v>114</v>
-      </c>
       <c r="E196" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B197" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E197" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B198" t="s">
+        <v>131</v>
+      </c>
+      <c r="E198" t="s">
         <v>132</v>
       </c>
-      <c r="E198" t="s">
-        <v>133</v>
-      </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B199" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>142</v>
+      </c>
+      <c r="B200" t="s">
         <v>143</v>
       </c>
-      <c r="B200" t="s">
-        <v>144</v>
-      </c>
       <c r="E200" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B201" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E201" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F201" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B202" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E202" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B203" t="s">
+        <v>161</v>
+      </c>
+      <c r="E203" t="s">
         <v>162</v>
       </c>
-      <c r="E203" t="s">
-        <v>163</v>
-      </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B204" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E204" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>194</v>
+      </c>
+      <c r="B205" t="s">
         <v>195</v>
       </c>
-      <c r="B205" t="s">
+      <c r="E205" t="s">
         <v>196</v>
       </c>
-      <c r="E205" t="s">
-        <v>197</v>
-      </c>
       <c r="F205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E207" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B209" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E209" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B210" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B211" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E211" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B212" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E212" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>224</v>
+      </c>
+      <c r="B213" t="s">
         <v>225</v>
       </c>
-      <c r="B213" t="s">
+      <c r="E213" t="s">
         <v>226</v>
       </c>
-      <c r="E213" t="s">
-        <v>227</v>
-      </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B214" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E214" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F214" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>232</v>
+      </c>
+      <c r="B215" t="s">
         <v>233</v>
       </c>
-      <c r="B215" t="s">
-        <v>234</v>
-      </c>
       <c r="E215" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F216" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B217" t="s">
+        <v>195</v>
+      </c>
+      <c r="E217" t="s">
         <v>196</v>
       </c>
-      <c r="E217" t="s">
-        <v>197</v>
-      </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B218" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E218" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B219" t="s">
+        <v>239</v>
+      </c>
+      <c r="E219" t="s">
         <v>240</v>
       </c>
-      <c r="E219" t="s">
-        <v>241</v>
-      </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B220" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E220" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B221" t="s">
+        <v>243</v>
+      </c>
+      <c r="E221" t="s">
         <v>244</v>
       </c>
-      <c r="E221" t="s">
-        <v>245</v>
-      </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B222" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E222" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F222" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -865,7 +865,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F222" totalsRowShown="0">
   <autoFilter ref="A1:F222"/>
   <sortState ref="A2:F222">
-    <sortCondition ref="F1:F222"/>
+    <sortCondition ref="A1:A222"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="tableName"/>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:F222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F14" sqref="F14:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,32 +1191,32 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -1224,98 +1224,98 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -1334,32 +1334,32 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
@@ -1367,32 +1367,32 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -1400,87 +1400,87 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
@@ -1488,21 +1488,21 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -1510,43 +1510,46 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>175</v>
+        <v>131</v>
+      </c>
+      <c r="E33" t="s">
+        <v>132</v>
       </c>
       <c r="F33" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
@@ -1554,131 +1557,146 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>193</v>
+        <v>40</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>198</v>
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>204</v>
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>206</v>
+        <v>56</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>57</v>
+      </c>
+      <c r="E46" t="s">
+        <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -1686,29 +1704,29 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
+        <v>59</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>246</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="F49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
@@ -1719,10 +1737,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>251</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="F51" t="s">
         <v>5</v>
@@ -1730,10 +1748,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
       <c r="F52" t="s">
         <v>5</v>
@@ -1741,87 +1759,105 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>258</v>
+      </c>
+      <c r="E53" t="s">
+        <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>107</v>
+      </c>
+      <c r="E54" t="s">
+        <v>63</v>
       </c>
       <c r="F54" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>104</v>
+      </c>
+      <c r="E55" t="s">
+        <v>65</v>
       </c>
       <c r="F55" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>78</v>
+      </c>
+      <c r="E56" t="s">
+        <v>66</v>
       </c>
       <c r="F56" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>94</v>
+      </c>
+      <c r="E57" t="s">
+        <v>67</v>
       </c>
       <c r="F57" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>42</v>
+      </c>
+      <c r="E58" t="s">
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>249</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="F59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -1829,21 +1865,24 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>259</v>
+      </c>
+      <c r="E61" t="s">
+        <v>68</v>
       </c>
       <c r="F61" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="F62" t="s">
         <v>5</v>
@@ -1851,10 +1890,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -1862,10 +1901,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
         <v>5</v>
@@ -1873,21 +1912,24 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>104</v>
+      </c>
+      <c r="E65" t="s">
+        <v>65</v>
       </c>
       <c r="F65" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -1895,43 +1937,58 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>94</v>
+      </c>
+      <c r="E67" t="s">
+        <v>67</v>
       </c>
       <c r="F67" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" t="s">
+        <v>71</v>
       </c>
       <c r="F68" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" t="s">
+        <v>72</v>
       </c>
       <c r="F69" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -1939,197 +1996,254 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>89</v>
+      </c>
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" t="s">
+        <v>91</v>
       </c>
       <c r="F71" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>78</v>
+      </c>
+      <c r="E72" t="s">
+        <v>66</v>
       </c>
       <c r="F72" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>44</v>
+        <v>79</v>
+      </c>
+      <c r="E73" t="s">
+        <v>84</v>
       </c>
       <c r="F73" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>80</v>
+      </c>
+      <c r="E74" t="s">
+        <v>85</v>
       </c>
       <c r="F74" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>81</v>
+      </c>
+      <c r="E75" t="s">
+        <v>86</v>
       </c>
       <c r="F75" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>82</v>
+      </c>
+      <c r="E76" t="s">
+        <v>87</v>
       </c>
       <c r="F76" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>83</v>
+      </c>
+      <c r="E77" t="s">
+        <v>88</v>
       </c>
       <c r="F77" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>96</v>
+      </c>
+      <c r="C78" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" t="s">
+        <v>91</v>
       </c>
       <c r="F78" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="E79" t="s">
+        <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="E80" t="s">
+        <v>66</v>
       </c>
       <c r="F80" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>251</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>252</v>
+        <v>79</v>
+      </c>
+      <c r="E81" t="s">
+        <v>84</v>
       </c>
       <c r="F81" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>251</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>253</v>
+        <v>80</v>
+      </c>
+      <c r="E82" t="s">
+        <v>85</v>
       </c>
       <c r="F82" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>249</v>
+        <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>254</v>
+        <v>93</v>
+      </c>
+      <c r="E83" t="s">
+        <v>95</v>
       </c>
       <c r="F83" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>256</v>
+        <v>82</v>
+      </c>
+      <c r="E84" t="s">
+        <v>87</v>
       </c>
       <c r="F84" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>234</v>
+        <v>81</v>
+      </c>
+      <c r="E85" t="s">
+        <v>86</v>
       </c>
       <c r="F85" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>94</v>
+      </c>
+      <c r="E86" t="s">
+        <v>67</v>
       </c>
       <c r="F86" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>98</v>
+      </c>
+      <c r="E87" t="s">
+        <v>67</v>
       </c>
       <c r="F87" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F88" t="s">
         <v>5</v>
@@ -2140,10 +2254,13 @@
         <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="E89" t="s">
+        <v>102</v>
       </c>
       <c r="F89" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2170,76 +2287,88 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
+        <v>104</v>
+      </c>
+      <c r="E92" t="s">
+        <v>65</v>
       </c>
       <c r="F92" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>105</v>
+      </c>
+      <c r="E93" t="s">
+        <v>110</v>
       </c>
       <c r="F93" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>106</v>
+      </c>
+      <c r="E94" t="s">
+        <v>111</v>
       </c>
       <c r="F94" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>107</v>
+      </c>
+      <c r="E95" t="s">
+        <v>63</v>
       </c>
       <c r="F95" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="F97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B98" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
         <v>5</v>
@@ -2247,10 +2376,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="F99" t="s">
         <v>5</v>
@@ -2258,18 +2387,18 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="F100" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
@@ -2280,76 +2409,76 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="F102" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="F103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B104" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="F104" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="B105" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="F105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="F106" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="F107" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>5</v>
@@ -2357,76 +2486,91 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="E109" t="s">
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="E110" t="s">
+        <v>35</v>
       </c>
       <c r="F110" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="E111" t="s">
+        <v>66</v>
       </c>
       <c r="F111" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>113</v>
+      </c>
+      <c r="E112" t="s">
+        <v>117</v>
       </c>
       <c r="F112" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>114</v>
+      </c>
+      <c r="E113" t="s">
+        <v>116</v>
       </c>
       <c r="F113" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="F114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -2434,7 +2578,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
@@ -2445,18 +2589,18 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="B117" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="F117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
@@ -2470,10 +2614,10 @@
         <v>176</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="F119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -2481,7 +2625,7 @@
         <v>176</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -2492,7 +2636,7 @@
         <v>176</v>
       </c>
       <c r="B121" t="s">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="F121" t="s">
         <v>5</v>
@@ -2500,10 +2644,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="F122" t="s">
         <v>5</v>
@@ -2511,18 +2655,18 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="F123" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
@@ -2533,21 +2677,21 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="F125" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="B126" t="s">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -2555,32 +2699,32 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F127" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B128" t="s">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="F128" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B129" t="s">
-        <v>189</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>5</v>
@@ -2588,21 +2732,21 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="F130" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B131" t="s">
-        <v>199</v>
+        <v>4</v>
       </c>
       <c r="F131" t="s">
         <v>5</v>
@@ -2610,21 +2754,21 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="F132" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="F133" t="s">
         <v>5</v>
@@ -2632,10 +2776,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="F134" t="s">
         <v>5</v>
@@ -2643,7 +2787,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="B135" t="s">
         <v>4</v>
@@ -2654,32 +2798,35 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="E136" t="s">
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B137" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="F137" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B138" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -2687,21 +2834,21 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="F139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="F140" t="s">
         <v>5</v>
@@ -2709,32 +2856,32 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="B141" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="F141" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="F142" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="F143" t="s">
         <v>5</v>
@@ -2742,10 +2889,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="B144" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="F144" t="s">
         <v>5</v>
@@ -2753,10 +2900,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="B145" t="s">
-        <v>234</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -2764,10 +2911,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="B146" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="F146" t="s">
         <v>5</v>
@@ -2775,29 +2922,35 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="B147" t="s">
-        <v>238</v>
+        <v>168</v>
+      </c>
+      <c r="C147" t="s">
+        <v>167</v>
+      </c>
+      <c r="D147" t="s">
+        <v>168</v>
       </c>
       <c r="F147" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="B148" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="F148" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="B149" t="s">
         <v>4</v>
@@ -2808,10 +2961,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="B150" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F150" t="s">
         <v>5</v>
@@ -2819,18 +2972,18 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="F151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>248</v>
+        <v>142</v>
       </c>
       <c r="B152" t="s">
         <v>4</v>
@@ -2841,115 +2994,82 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="B153" t="s">
-        <v>71</v>
-      </c>
-      <c r="C153" t="s">
-        <v>75</v>
-      </c>
-      <c r="D153" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="F153" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>72</v>
-      </c>
-      <c r="C154" t="s">
-        <v>74</v>
-      </c>
-      <c r="D154" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="F154" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="B155" t="s">
-        <v>89</v>
-      </c>
-      <c r="C155" t="s">
-        <v>90</v>
-      </c>
-      <c r="D155" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="F155" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="B156" t="s">
-        <v>96</v>
-      </c>
-      <c r="C156" t="s">
-        <v>90</v>
-      </c>
-      <c r="D156" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="F156" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="B157" t="s">
-        <v>168</v>
-      </c>
-      <c r="C157" t="s">
-        <v>167</v>
-      </c>
-      <c r="D157" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="F157" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="B158" t="s">
-        <v>242</v>
-      </c>
-      <c r="C158" t="s">
-        <v>70</v>
-      </c>
-      <c r="D158" t="s">
-        <v>6</v>
+        <v>143</v>
+      </c>
+      <c r="E158" t="s">
+        <v>153</v>
       </c>
       <c r="F158" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B159" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="E159" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="F159" t="s">
         <v>33</v>
@@ -2957,13 +3077,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="B160" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="E160" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="F160" t="s">
         <v>33</v>
@@ -2971,55 +3091,46 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="B161" t="s">
-        <v>42</v>
-      </c>
-      <c r="E161" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="B162" t="s">
-        <v>56</v>
-      </c>
-      <c r="E162" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="B163" t="s">
-        <v>57</v>
-      </c>
-      <c r="E163" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="B164" t="s">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="E164" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
         <v>33</v>
@@ -3027,69 +3138,57 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="B165" t="s">
-        <v>107</v>
-      </c>
-      <c r="E165" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="B166" t="s">
-        <v>104</v>
-      </c>
-      <c r="E166" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="B167" t="s">
-        <v>78</v>
-      </c>
-      <c r="E167" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="B168" t="s">
-        <v>94</v>
-      </c>
-      <c r="E168" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="B169" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="E169" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="F169" t="s">
         <v>33</v>
@@ -3097,181 +3196,145 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>259</v>
-      </c>
-      <c r="E170" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>104</v>
-      </c>
-      <c r="E171" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="B172" t="s">
-        <v>94</v>
-      </c>
-      <c r="E172" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="B173" t="s">
-        <v>78</v>
-      </c>
-      <c r="E173" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="B174" t="s">
-        <v>79</v>
-      </c>
-      <c r="E174" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="B175" t="s">
-        <v>80</v>
-      </c>
-      <c r="E175" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="B176" t="s">
-        <v>81</v>
-      </c>
-      <c r="E176" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="B177" t="s">
-        <v>82</v>
-      </c>
-      <c r="E177" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="B178" t="s">
-        <v>83</v>
-      </c>
-      <c r="E178" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B179" t="s">
-        <v>42</v>
-      </c>
-      <c r="E179" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="B180" t="s">
-        <v>78</v>
-      </c>
-      <c r="E180" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="B181" t="s">
-        <v>79</v>
-      </c>
-      <c r="E181" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="B182" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E182" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="F182" t="s">
         <v>33</v>
@@ -3279,83 +3342,68 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>92</v>
+        <v>205</v>
       </c>
       <c r="B183" t="s">
-        <v>93</v>
-      </c>
-      <c r="E183" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>92</v>
+        <v>205</v>
       </c>
       <c r="B184" t="s">
-        <v>82</v>
-      </c>
-      <c r="E184" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="F184" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>92</v>
+        <v>205</v>
       </c>
       <c r="B185" t="s">
-        <v>81</v>
-      </c>
-      <c r="E185" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>92</v>
+        <v>205</v>
       </c>
       <c r="B186" t="s">
-        <v>94</v>
-      </c>
-      <c r="E186" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="B187" t="s">
-        <v>98</v>
-      </c>
-      <c r="E187" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="B188" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="E188" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="F188" t="s">
         <v>33</v>
@@ -3363,13 +3411,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="B189" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="E189" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="F189" t="s">
         <v>33</v>
@@ -3377,13 +3425,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="B190" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="E190" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="F190" t="s">
         <v>33</v>
@@ -3391,13 +3439,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="B191" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="E191" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="F191" t="s">
         <v>33</v>
@@ -3405,13 +3453,13 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="B192" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="E192" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="F192" t="s">
         <v>33</v>
@@ -3419,13 +3467,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="B193" t="s">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="E193" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F193" t="s">
         <v>33</v>
@@ -3433,13 +3481,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="B194" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="E194" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="F194" t="s">
         <v>33</v>
@@ -3447,13 +3495,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="B195" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="E195" t="s">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="F195" t="s">
         <v>33</v>
@@ -3461,55 +3509,46 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>112</v>
+        <v>227</v>
       </c>
       <c r="B196" t="s">
-        <v>113</v>
-      </c>
-      <c r="E196" t="s">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="B197" t="s">
-        <v>114</v>
-      </c>
-      <c r="E197" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="B198" t="s">
-        <v>131</v>
-      </c>
-      <c r="E198" t="s">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="B199" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="E199" t="s">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="F199" t="s">
         <v>33</v>
@@ -3517,55 +3556,46 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="B200" t="s">
-        <v>143</v>
-      </c>
-      <c r="E200" t="s">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="B201" t="s">
-        <v>144</v>
-      </c>
-      <c r="E201" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="B202" t="s">
-        <v>145</v>
-      </c>
-      <c r="E202" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="B203" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="E203" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="F203" t="s">
         <v>33</v>
@@ -3573,83 +3603,68 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="B204" t="s">
-        <v>41</v>
-      </c>
-      <c r="E204" t="s">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="F204" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="B205" t="s">
-        <v>195</v>
-      </c>
-      <c r="E205" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F205" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="B206" t="s">
-        <v>207</v>
-      </c>
-      <c r="E206" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="B207" t="s">
-        <v>208</v>
-      </c>
-      <c r="E207" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="F207" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="B208" t="s">
-        <v>42</v>
-      </c>
-      <c r="E208" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="B209" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="E209" t="s">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="F209" t="s">
         <v>33</v>
@@ -3657,13 +3672,13 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="B210" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E210" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="F210" t="s">
         <v>33</v>
@@ -3671,13 +3686,13 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="B211" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E211" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="F211" t="s">
         <v>33</v>
@@ -3685,13 +3700,13 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="B212" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="E212" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="F212" t="s">
         <v>33</v>
@@ -3699,13 +3714,13 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B213" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E213" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F213" t="s">
         <v>33</v>
@@ -3713,27 +3728,30 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B214" t="s">
-        <v>207</v>
-      </c>
-      <c r="E214" t="s">
-        <v>217</v>
+        <v>242</v>
+      </c>
+      <c r="C214" t="s">
+        <v>70</v>
+      </c>
+      <c r="D214" t="s">
+        <v>6</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B215" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E215" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F215" t="s">
         <v>33</v>
@@ -3741,55 +3759,46 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B216" t="s">
-        <v>42</v>
-      </c>
-      <c r="E216" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F216" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B217" t="s">
-        <v>195</v>
-      </c>
-      <c r="E217" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="F217" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B218" t="s">
-        <v>209</v>
-      </c>
-      <c r="E218" t="s">
-        <v>219</v>
+        <v>4</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B219" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="E219" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="F219" t="s">
         <v>33</v>
@@ -3797,44 +3806,35 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B220" t="s">
-        <v>214</v>
-      </c>
-      <c r="E220" t="s">
-        <v>221</v>
+        <v>4</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B221" t="s">
-        <v>243</v>
-      </c>
-      <c r="E221" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="B222" t="s">
-        <v>207</v>
-      </c>
-      <c r="E222" t="s">
-        <v>217</v>
+        <v>4</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="264">
   <si>
     <t>tableName</t>
   </si>
@@ -807,6 +807,15 @@
   </si>
   <si>
     <t>grpCode</t>
+  </si>
+  <si>
+    <t>dbName</t>
+  </si>
+  <si>
+    <t>joinDbName</t>
+  </si>
+  <si>
+    <t>MIGRATION_OPL</t>
   </si>
 </sst>
 </file>
@@ -862,14 +871,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F222" totalsRowShown="0">
-  <autoFilter ref="A1:F222"/>
-  <sortState ref="A2:F222">
-    <sortCondition ref="A1:A222"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H222" totalsRowShown="0">
+  <autoFilter ref="A1:H222"/>
+  <sortState ref="B2:G222">
+    <sortCondition ref="B1:B222"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="8">
+    <tableColumn id="8" name="dbName"/>
     <tableColumn id="1" name="tableName"/>
     <tableColumn id="2" name="columnName"/>
+    <tableColumn id="7" name="joinDbName"/>
     <tableColumn id="3" name="joinTableName"/>
     <tableColumn id="4" name="joinColumnName"/>
     <tableColumn id="5" name="grpCode"/>
@@ -1142,2698 +1153,3577 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F222"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F18"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>260</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>69</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="F17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>28</v>
       </c>
-      <c r="F24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>29</v>
       </c>
-      <c r="F25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>31</v>
       </c>
-      <c r="F27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>4</v>
       </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>119</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B30" t="s">
         <v>118</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>4</v>
       </c>
-      <c r="F30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" t="s">
         <v>129</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>130</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" t="s">
         <v>129</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>4</v>
       </c>
-      <c r="F32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>263</v>
+      </c>
+      <c r="B33" t="s">
         <v>129</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>131</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D33" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" t="s">
         <v>132</v>
       </c>
-      <c r="F33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B34" t="s">
         <v>134</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>133</v>
       </c>
-      <c r="F34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>39</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>43</v>
       </c>
-      <c r="F36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>263</v>
+      </c>
+      <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>44</v>
       </c>
-      <c r="F37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>263</v>
+      </c>
+      <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>45</v>
       </c>
-      <c r="F38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="F39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>263</v>
+      </c>
+      <c r="B40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>47</v>
       </c>
-      <c r="F40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="F41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" t="s">
         <v>38</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>40</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D42" t="s">
+        <v>263</v>
+      </c>
+      <c r="G42" t="s">
         <v>34</v>
       </c>
-      <c r="F42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" t="s">
         <v>38</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>41</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43" t="s">
+        <v>263</v>
+      </c>
+      <c r="G43" t="s">
         <v>36</v>
       </c>
-      <c r="F43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44" t="s">
         <v>38</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>42</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D44" t="s">
+        <v>263</v>
+      </c>
+      <c r="G44" t="s">
         <v>35</v>
       </c>
-      <c r="F44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" t="s">
         <v>55</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>56</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D45" t="s">
+        <v>263</v>
+      </c>
+      <c r="G45" t="s">
         <v>51</v>
       </c>
-      <c r="F45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>263</v>
+      </c>
+      <c r="B46" t="s">
         <v>55</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>57</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46" t="s">
+        <v>263</v>
+      </c>
+      <c r="G46" t="s">
         <v>54</v>
       </c>
-      <c r="F46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>263</v>
+      </c>
+      <c r="B47" t="s">
         <v>58</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>61</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>263</v>
+      </c>
+      <c r="B48" t="s">
         <v>58</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>59</v>
       </c>
-      <c r="F48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>263</v>
+      </c>
+      <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>60</v>
       </c>
-      <c r="F49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>263</v>
+      </c>
+      <c r="B50" t="s">
         <v>58</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>4</v>
       </c>
-      <c r="F50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>263</v>
+      </c>
+      <c r="B51" t="s">
         <v>251</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>252</v>
       </c>
-      <c r="F51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>263</v>
+      </c>
+      <c r="B52" t="s">
         <v>251</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>253</v>
       </c>
-      <c r="F52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>263</v>
+      </c>
+      <c r="B53" t="s">
         <v>251</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>258</v>
       </c>
-      <c r="E53" t="s">
+      <c r="D53" t="s">
+        <v>263</v>
+      </c>
+      <c r="G53" t="s">
         <v>62</v>
       </c>
-      <c r="F53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" t="s">
         <v>251</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>107</v>
       </c>
-      <c r="E54" t="s">
+      <c r="D54" t="s">
+        <v>263</v>
+      </c>
+      <c r="G54" t="s">
         <v>63</v>
       </c>
-      <c r="F54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>263</v>
+      </c>
+      <c r="B55" t="s">
         <v>64</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>104</v>
       </c>
-      <c r="E55" t="s">
+      <c r="D55" t="s">
+        <v>263</v>
+      </c>
+      <c r="G55" t="s">
         <v>65</v>
       </c>
-      <c r="F55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" t="s">
         <v>64</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>78</v>
       </c>
-      <c r="E56" t="s">
+      <c r="D56" t="s">
+        <v>263</v>
+      </c>
+      <c r="G56" t="s">
         <v>66</v>
       </c>
-      <c r="F56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>263</v>
+      </c>
+      <c r="B57" t="s">
         <v>64</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>94</v>
       </c>
-      <c r="E57" t="s">
+      <c r="D57" t="s">
+        <v>263</v>
+      </c>
+      <c r="G57" t="s">
         <v>67</v>
       </c>
-      <c r="F57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>263</v>
+      </c>
+      <c r="B58" t="s">
         <v>64</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>42</v>
       </c>
-      <c r="E58" t="s">
+      <c r="D58" t="s">
+        <v>263</v>
+      </c>
+      <c r="G58" t="s">
         <v>35</v>
       </c>
-      <c r="F58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" t="s">
         <v>249</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>250</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>263</v>
+      </c>
+      <c r="B60" t="s">
         <v>249</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>254</v>
       </c>
-      <c r="F60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>263</v>
+      </c>
+      <c r="B61" t="s">
         <v>249</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>259</v>
       </c>
-      <c r="E61" t="s">
+      <c r="D61" t="s">
+        <v>263</v>
+      </c>
+      <c r="G61" t="s">
         <v>68</v>
       </c>
-      <c r="F61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>263</v>
+      </c>
+      <c r="B62" t="s">
         <v>255</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>256</v>
       </c>
-      <c r="F62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>263</v>
+      </c>
+      <c r="B63" t="s">
         <v>255</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>234</v>
       </c>
-      <c r="F63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>263</v>
+      </c>
+      <c r="B64" t="s">
         <v>255</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>4</v>
       </c>
-      <c r="F64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" t="s">
         <v>255</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>104</v>
       </c>
-      <c r="E65" t="s">
+      <c r="D65" t="s">
+        <v>263</v>
+      </c>
+      <c r="G65" t="s">
         <v>65</v>
       </c>
-      <c r="F65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>263</v>
+      </c>
+      <c r="B66" t="s">
         <v>257</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>4</v>
       </c>
-      <c r="F66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>263</v>
+      </c>
+      <c r="B67" t="s">
         <v>257</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>94</v>
       </c>
-      <c r="E67" t="s">
+      <c r="D67" t="s">
+        <v>263</v>
+      </c>
+      <c r="G67" t="s">
         <v>67</v>
       </c>
-      <c r="F67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>263</v>
+      </c>
+      <c r="B68" t="s">
         <v>73</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>71</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>263</v>
+      </c>
+      <c r="E68" t="s">
         <v>75</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
         <v>71</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H68" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" t="s">
         <v>73</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>72</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>263</v>
+      </c>
+      <c r="E69" t="s">
         <v>74</v>
       </c>
-      <c r="D69" t="s">
+      <c r="F69" t="s">
         <v>72</v>
       </c>
-      <c r="F69" t="s">
+      <c r="H69" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>263</v>
+      </c>
+      <c r="B70" t="s">
         <v>76</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>77</v>
       </c>
-      <c r="F70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>263</v>
+      </c>
+      <c r="B71" t="s">
         <v>76</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>89</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>263</v>
+      </c>
+      <c r="E71" t="s">
         <v>90</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
         <v>91</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>263</v>
+      </c>
+      <c r="B72" t="s">
         <v>76</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>78</v>
       </c>
-      <c r="E72" t="s">
+      <c r="D72" t="s">
+        <v>263</v>
+      </c>
+      <c r="G72" t="s">
         <v>66</v>
       </c>
-      <c r="F72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>263</v>
+      </c>
+      <c r="B73" t="s">
         <v>76</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>79</v>
       </c>
-      <c r="E73" t="s">
+      <c r="D73" t="s">
+        <v>263</v>
+      </c>
+      <c r="G73" t="s">
         <v>84</v>
       </c>
-      <c r="F73" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>263</v>
+      </c>
+      <c r="B74" t="s">
         <v>76</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>80</v>
       </c>
-      <c r="E74" t="s">
+      <c r="D74" t="s">
+        <v>263</v>
+      </c>
+      <c r="G74" t="s">
         <v>85</v>
       </c>
-      <c r="F74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>263</v>
+      </c>
+      <c r="B75" t="s">
         <v>76</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>81</v>
       </c>
-      <c r="E75" t="s">
+      <c r="D75" t="s">
+        <v>263</v>
+      </c>
+      <c r="G75" t="s">
         <v>86</v>
       </c>
-      <c r="F75" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>263</v>
+      </c>
+      <c r="B76" t="s">
         <v>76</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>82</v>
       </c>
-      <c r="E76" t="s">
+      <c r="D76" t="s">
+        <v>263</v>
+      </c>
+      <c r="G76" t="s">
         <v>87</v>
       </c>
-      <c r="F76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>263</v>
+      </c>
+      <c r="B77" t="s">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>83</v>
       </c>
-      <c r="E77" t="s">
+      <c r="D77" t="s">
+        <v>263</v>
+      </c>
+      <c r="G77" t="s">
         <v>88</v>
       </c>
-      <c r="F77" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>263</v>
+      </c>
+      <c r="B78" t="s">
         <v>92</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>96</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>263</v>
+      </c>
+      <c r="E78" t="s">
         <v>90</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F78" t="s">
         <v>91</v>
       </c>
-      <c r="F78" t="s">
+      <c r="H78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>263</v>
+      </c>
+      <c r="B79" t="s">
         <v>92</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>42</v>
       </c>
-      <c r="E79" t="s">
+      <c r="D79" t="s">
+        <v>263</v>
+      </c>
+      <c r="G79" t="s">
         <v>35</v>
       </c>
-      <c r="F79" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>263</v>
+      </c>
+      <c r="B80" t="s">
         <v>92</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>78</v>
       </c>
-      <c r="E80" t="s">
+      <c r="D80" t="s">
+        <v>263</v>
+      </c>
+      <c r="G80" t="s">
         <v>66</v>
       </c>
-      <c r="F80" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>263</v>
+      </c>
+      <c r="B81" t="s">
         <v>92</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>79</v>
       </c>
-      <c r="E81" t="s">
+      <c r="D81" t="s">
+        <v>263</v>
+      </c>
+      <c r="G81" t="s">
         <v>84</v>
       </c>
-      <c r="F81" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>263</v>
+      </c>
+      <c r="B82" t="s">
         <v>92</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>80</v>
       </c>
-      <c r="E82" t="s">
+      <c r="D82" t="s">
+        <v>263</v>
+      </c>
+      <c r="G82" t="s">
         <v>85</v>
       </c>
-      <c r="F82" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>263</v>
+      </c>
+      <c r="B83" t="s">
         <v>92</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>93</v>
       </c>
-      <c r="E83" t="s">
+      <c r="D83" t="s">
+        <v>263</v>
+      </c>
+      <c r="G83" t="s">
         <v>95</v>
       </c>
-      <c r="F83" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>263</v>
+      </c>
+      <c r="B84" t="s">
         <v>92</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>82</v>
       </c>
-      <c r="E84" t="s">
+      <c r="D84" t="s">
+        <v>263</v>
+      </c>
+      <c r="G84" t="s">
         <v>87</v>
       </c>
-      <c r="F84" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>263</v>
+      </c>
+      <c r="B85" t="s">
         <v>92</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>81</v>
       </c>
-      <c r="E85" t="s">
+      <c r="D85" t="s">
+        <v>263</v>
+      </c>
+      <c r="G85" t="s">
         <v>86</v>
       </c>
-      <c r="F85" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86" t="s">
         <v>92</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>94</v>
       </c>
-      <c r="E86" t="s">
+      <c r="D86" t="s">
+        <v>263</v>
+      </c>
+      <c r="G86" t="s">
         <v>67</v>
       </c>
-      <c r="F86" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>263</v>
+      </c>
+      <c r="B87" t="s">
         <v>97</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>98</v>
       </c>
-      <c r="E87" t="s">
+      <c r="D87" t="s">
+        <v>263</v>
+      </c>
+      <c r="G87" t="s">
         <v>67</v>
       </c>
-      <c r="F87" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B88" t="s">
         <v>99</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>100</v>
       </c>
-      <c r="F88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>263</v>
+      </c>
+      <c r="B89" t="s">
         <v>99</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>101</v>
       </c>
-      <c r="E89" t="s">
+      <c r="D89" t="s">
+        <v>263</v>
+      </c>
+      <c r="G89" t="s">
         <v>102</v>
       </c>
-      <c r="F89" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>263</v>
+      </c>
+      <c r="B90" t="s">
         <v>103</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>108</v>
       </c>
-      <c r="F90" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" t="s">
         <v>103</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>109</v>
       </c>
-      <c r="F91" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>263</v>
+      </c>
+      <c r="B92" t="s">
         <v>103</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>104</v>
       </c>
-      <c r="E92" t="s">
+      <c r="D92" t="s">
+        <v>263</v>
+      </c>
+      <c r="G92" t="s">
         <v>65</v>
       </c>
-      <c r="F92" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>263</v>
+      </c>
+      <c r="B93" t="s">
         <v>103</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>105</v>
       </c>
-      <c r="E93" t="s">
+      <c r="D93" t="s">
+        <v>263</v>
+      </c>
+      <c r="G93" t="s">
         <v>110</v>
       </c>
-      <c r="F93" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H93" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>263</v>
+      </c>
+      <c r="B94" t="s">
         <v>103</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>106</v>
       </c>
-      <c r="E94" t="s">
+      <c r="D94" t="s">
+        <v>263</v>
+      </c>
+      <c r="G94" t="s">
         <v>111</v>
       </c>
-      <c r="F94" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>263</v>
+      </c>
+      <c r="B95" t="s">
         <v>103</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>107</v>
       </c>
-      <c r="E95" t="s">
+      <c r="D95" t="s">
+        <v>263</v>
+      </c>
+      <c r="G95" t="s">
         <v>63</v>
       </c>
-      <c r="F95" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>263</v>
+      </c>
+      <c r="B96" t="s">
         <v>135</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>61</v>
       </c>
-      <c r="F96" t="s">
+      <c r="H96" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>263</v>
+      </c>
+      <c r="B97" t="s">
         <v>120</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>121</v>
       </c>
-      <c r="F97" t="s">
+      <c r="H97" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>263</v>
+      </c>
+      <c r="B98" t="s">
         <v>120</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>4</v>
       </c>
-      <c r="F98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>263</v>
+      </c>
+      <c r="B99" t="s">
         <v>172</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>173</v>
       </c>
-      <c r="F99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>263</v>
+      </c>
+      <c r="B100" t="s">
         <v>174</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>175</v>
       </c>
-      <c r="F100" t="s">
+      <c r="H100" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>263</v>
+      </c>
+      <c r="B101" t="s">
         <v>174</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>4</v>
       </c>
-      <c r="F101" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>263</v>
+      </c>
+      <c r="B102" t="s">
         <v>74</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>72</v>
       </c>
-      <c r="F102" t="s">
+      <c r="H102" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>263</v>
+      </c>
+      <c r="B103" t="s">
         <v>124</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>125</v>
       </c>
-      <c r="F103" t="s">
+      <c r="H103" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>263</v>
+      </c>
+      <c r="B104" t="s">
         <v>126</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>127</v>
       </c>
-      <c r="F104" t="s">
+      <c r="H104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>263</v>
+      </c>
+      <c r="B105" t="s">
         <v>75</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>71</v>
       </c>
-      <c r="F105" t="s">
+      <c r="H105" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>263</v>
+      </c>
+      <c r="B106" t="s">
         <v>112</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>39</v>
       </c>
-      <c r="F106" t="s">
+      <c r="H106" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>263</v>
+      </c>
+      <c r="B107" t="s">
         <v>112</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>115</v>
       </c>
-      <c r="F107" t="s">
+      <c r="H107" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>263</v>
+      </c>
+      <c r="B108" t="s">
         <v>112</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>4</v>
       </c>
-      <c r="F108" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>263</v>
+      </c>
+      <c r="B109" t="s">
         <v>112</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>40</v>
       </c>
-      <c r="E109" t="s">
+      <c r="D109" t="s">
+        <v>263</v>
+      </c>
+      <c r="G109" t="s">
         <v>34</v>
       </c>
-      <c r="F109" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>263</v>
+      </c>
+      <c r="B110" t="s">
         <v>112</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>42</v>
       </c>
-      <c r="E110" t="s">
+      <c r="D110" t="s">
+        <v>263</v>
+      </c>
+      <c r="G110" t="s">
         <v>35</v>
       </c>
-      <c r="F110" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>263</v>
+      </c>
+      <c r="B111" t="s">
         <v>112</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>78</v>
       </c>
-      <c r="E111" t="s">
+      <c r="D111" t="s">
+        <v>263</v>
+      </c>
+      <c r="G111" t="s">
         <v>66</v>
       </c>
-      <c r="F111" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>263</v>
+      </c>
+      <c r="B112" t="s">
         <v>112</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>113</v>
       </c>
-      <c r="E112" t="s">
+      <c r="D112" t="s">
+        <v>263</v>
+      </c>
+      <c r="G112" t="s">
         <v>117</v>
       </c>
-      <c r="F112" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H112" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>263</v>
+      </c>
+      <c r="B113" t="s">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>114</v>
       </c>
-      <c r="E113" t="s">
+      <c r="D113" t="s">
+        <v>263</v>
+      </c>
+      <c r="G113" t="s">
         <v>116</v>
       </c>
-      <c r="F113" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>263</v>
+      </c>
+      <c r="B114" t="s">
         <v>122</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>123</v>
       </c>
-      <c r="F114" t="s">
+      <c r="H114" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>263</v>
+      </c>
+      <c r="B115" t="s">
         <v>122</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>4</v>
       </c>
-      <c r="F115" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>263</v>
+      </c>
+      <c r="B116" t="s">
         <v>128</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>4</v>
       </c>
-      <c r="F116" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>263</v>
+      </c>
+      <c r="B117" t="s">
         <v>32</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>37</v>
       </c>
-      <c r="F117" t="s">
+      <c r="H117" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>263</v>
+      </c>
+      <c r="B118" t="s">
         <v>32</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>4</v>
       </c>
-      <c r="F118" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>263</v>
+      </c>
+      <c r="B119" t="s">
         <v>176</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>177</v>
       </c>
-      <c r="F119" t="s">
+      <c r="H119" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>263</v>
+      </c>
+      <c r="B120" t="s">
         <v>176</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>22</v>
       </c>
-      <c r="F120" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>263</v>
+      </c>
+      <c r="B121" t="s">
         <v>176</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>4</v>
       </c>
-      <c r="F121" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>263</v>
+      </c>
+      <c r="B122" t="s">
         <v>176</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>171</v>
       </c>
-      <c r="F122" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>263</v>
+      </c>
+      <c r="B123" t="s">
         <v>178</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>179</v>
       </c>
-      <c r="F123" t="s">
+      <c r="H123" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>263</v>
+      </c>
+      <c r="B124" t="s">
         <v>178</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>4</v>
       </c>
-      <c r="F124" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>263</v>
+      </c>
+      <c r="B125" t="s">
         <v>163</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>164</v>
       </c>
-      <c r="F125" t="s">
+      <c r="H125" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>263</v>
+      </c>
+      <c r="B126" t="s">
         <v>163</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>4</v>
       </c>
-      <c r="F126" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>263</v>
+      </c>
+      <c r="B127" t="s">
         <v>90</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>91</v>
       </c>
-      <c r="F127" t="s">
+      <c r="H127" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>263</v>
+      </c>
+      <c r="B128" t="s">
         <v>180</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>181</v>
       </c>
-      <c r="F128" t="s">
+      <c r="H128" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" t="s">
         <v>180</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>4</v>
       </c>
-      <c r="F129" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>263</v>
+      </c>
+      <c r="B130" t="s">
         <v>182</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>183</v>
       </c>
-      <c r="F130" t="s">
+      <c r="H130" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" t="s">
         <v>182</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>4</v>
       </c>
-      <c r="F131" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>263</v>
+      </c>
+      <c r="B132" t="s">
         <v>136</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>137</v>
       </c>
-      <c r="F132" t="s">
+      <c r="H132" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" t="s">
         <v>136</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>138</v>
       </c>
-      <c r="F133" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" t="s">
         <v>136</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>139</v>
       </c>
-      <c r="F134" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135" t="s">
         <v>136</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>4</v>
       </c>
-      <c r="F135" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136" t="s">
         <v>136</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>42</v>
       </c>
-      <c r="E136" t="s">
+      <c r="D136" t="s">
+        <v>263</v>
+      </c>
+      <c r="G136" t="s">
         <v>35</v>
       </c>
-      <c r="F136" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H136" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>263</v>
+      </c>
+      <c r="B137" t="s">
         <v>184</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>185</v>
       </c>
-      <c r="F137" t="s">
+      <c r="H137" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>263</v>
+      </c>
+      <c r="B138" t="s">
         <v>184</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>4</v>
       </c>
-      <c r="F138" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>263</v>
+      </c>
+      <c r="B139" t="s">
         <v>140</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>141</v>
       </c>
-      <c r="F139" t="s">
+      <c r="H139" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>263</v>
+      </c>
+      <c r="B140" t="s">
         <v>140</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>4</v>
       </c>
-      <c r="F140" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>263</v>
+      </c>
+      <c r="B141" t="s">
         <v>165</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>166</v>
       </c>
-      <c r="F141" t="s">
+      <c r="H141" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>263</v>
+      </c>
+      <c r="B142" t="s">
         <v>186</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>187</v>
       </c>
-      <c r="F142" t="s">
+      <c r="H142" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>263</v>
+      </c>
+      <c r="B143" t="s">
         <v>186</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>188</v>
       </c>
-      <c r="F143" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>263</v>
+      </c>
+      <c r="B144" t="s">
         <v>186</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>22</v>
       </c>
-      <c r="F144" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>263</v>
+      </c>
+      <c r="B145" t="s">
         <v>186</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>4</v>
       </c>
-      <c r="F145" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>263</v>
+      </c>
+      <c r="B146" t="s">
         <v>186</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>189</v>
       </c>
-      <c r="F146" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>263</v>
+      </c>
+      <c r="B147" t="s">
         <v>186</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>168</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
+        <v>263</v>
+      </c>
+      <c r="E147" t="s">
         <v>167</v>
       </c>
-      <c r="D147" t="s">
+      <c r="F147" t="s">
         <v>168</v>
       </c>
-      <c r="F147" t="s">
+      <c r="H147" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>263</v>
+      </c>
+      <c r="B148" t="s">
         <v>167</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>168</v>
       </c>
-      <c r="F148" t="s">
+      <c r="H148" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>263</v>
+      </c>
+      <c r="B149" t="s">
         <v>167</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>4</v>
       </c>
-      <c r="F149" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>263</v>
+      </c>
+      <c r="B150" t="s">
         <v>167</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>22</v>
       </c>
-      <c r="F150" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>263</v>
+      </c>
+      <c r="B151" t="s">
         <v>142</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>146</v>
       </c>
-      <c r="F151" t="s">
+      <c r="H151" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>263</v>
+      </c>
+      <c r="B152" t="s">
         <v>142</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>4</v>
       </c>
-      <c r="F152" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>263</v>
+      </c>
+      <c r="B153" t="s">
         <v>142</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>147</v>
       </c>
-      <c r="F153" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>263</v>
+      </c>
+      <c r="B154" t="s">
         <v>142</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>148</v>
       </c>
-      <c r="F154" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>263</v>
+      </c>
+      <c r="B155" t="s">
         <v>142</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>149</v>
       </c>
-      <c r="F155" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>263</v>
+      </c>
+      <c r="B156" t="s">
         <v>142</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>150</v>
       </c>
-      <c r="F156" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>263</v>
+      </c>
+      <c r="B157" t="s">
         <v>142</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>151</v>
       </c>
-      <c r="F157" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>263</v>
+      </c>
+      <c r="B158" t="s">
         <v>142</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>143</v>
       </c>
-      <c r="E158" t="s">
+      <c r="D158" t="s">
+        <v>263</v>
+      </c>
+      <c r="G158" t="s">
         <v>153</v>
       </c>
-      <c r="F158" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H158" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>263</v>
+      </c>
+      <c r="B159" t="s">
         <v>142</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>144</v>
       </c>
-      <c r="E159" t="s">
+      <c r="D159" t="s">
+        <v>263</v>
+      </c>
+      <c r="G159" t="s">
         <v>152</v>
       </c>
-      <c r="F159" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H159" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>263</v>
+      </c>
+      <c r="B160" t="s">
         <v>142</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>145</v>
       </c>
-      <c r="E160" t="s">
+      <c r="D160" t="s">
+        <v>263</v>
+      </c>
+      <c r="G160" t="s">
         <v>154</v>
       </c>
-      <c r="F160" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H160" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>263</v>
+      </c>
+      <c r="B161" t="s">
         <v>155</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>156</v>
       </c>
-      <c r="F161" t="s">
+      <c r="H161" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>263</v>
+      </c>
+      <c r="B162" t="s">
         <v>155</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>4</v>
       </c>
-      <c r="F162" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>263</v>
+      </c>
+      <c r="B163" t="s">
         <v>190</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>191</v>
       </c>
-      <c r="F163" t="s">
+      <c r="H163" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>263</v>
+      </c>
+      <c r="B164" t="s">
         <v>190</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>41</v>
       </c>
-      <c r="E164" t="s">
+      <c r="D164" t="s">
+        <v>263</v>
+      </c>
+      <c r="G164" t="s">
         <v>36</v>
       </c>
-      <c r="F164" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H164" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>263</v>
+      </c>
+      <c r="B165" t="s">
         <v>192</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>193</v>
       </c>
-      <c r="F165" t="s">
+      <c r="H165" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>263</v>
+      </c>
+      <c r="B166" t="s">
         <v>192</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>4</v>
       </c>
-      <c r="F166" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>263</v>
+      </c>
+      <c r="B167" t="s">
         <v>157</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>158</v>
       </c>
-      <c r="F167" t="s">
+      <c r="H167" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>263</v>
+      </c>
+      <c r="B168" t="s">
         <v>157</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>4</v>
       </c>
-      <c r="F168" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>263</v>
+      </c>
+      <c r="B169" t="s">
         <v>194</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>195</v>
       </c>
-      <c r="E169" t="s">
+      <c r="D169" t="s">
+        <v>263</v>
+      </c>
+      <c r="G169" t="s">
         <v>196</v>
       </c>
-      <c r="F169" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H169" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>263</v>
+      </c>
+      <c r="B170" t="s">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>170</v>
       </c>
-      <c r="F170" t="s">
+      <c r="H170" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>263</v>
+      </c>
+      <c r="B171" t="s">
         <v>169</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>171</v>
       </c>
-      <c r="F171" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>263</v>
+      </c>
+      <c r="B172" t="s">
         <v>169</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>4</v>
       </c>
-      <c r="F172" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>263</v>
+      </c>
+      <c r="B173" t="s">
         <v>197</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>198</v>
       </c>
-      <c r="F173" t="s">
+      <c r="H173" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>263</v>
+      </c>
+      <c r="B174" t="s">
         <v>197</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>199</v>
       </c>
-      <c r="F174" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>263</v>
+      </c>
+      <c r="B175" t="s">
         <v>197</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>4</v>
       </c>
-      <c r="F175" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>263</v>
+      </c>
+      <c r="B176" t="s">
         <v>197</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>200</v>
       </c>
-      <c r="F176" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>263</v>
+      </c>
+      <c r="B177" t="s">
         <v>197</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>201</v>
       </c>
-      <c r="F177" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>263</v>
+      </c>
+      <c r="B178" t="s">
         <v>202</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>4</v>
       </c>
-      <c r="F178" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>263</v>
+      </c>
+      <c r="B179" t="s">
         <v>52</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>4</v>
       </c>
-      <c r="F179" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>263</v>
+      </c>
+      <c r="B180" t="s">
         <v>159</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>160</v>
       </c>
-      <c r="F180" t="s">
+      <c r="H180" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>263</v>
+      </c>
+      <c r="B181" t="s">
         <v>159</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>4</v>
       </c>
-      <c r="F181" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>263</v>
+      </c>
+      <c r="B182" t="s">
         <v>159</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>161</v>
       </c>
-      <c r="E182" t="s">
+      <c r="D182" t="s">
+        <v>263</v>
+      </c>
+      <c r="G182" t="s">
         <v>162</v>
       </c>
-      <c r="F182" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H182" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>263</v>
+      </c>
+      <c r="B183" t="s">
         <v>205</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>206</v>
       </c>
-      <c r="F183" t="s">
+      <c r="H183" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>263</v>
+      </c>
+      <c r="B184" t="s">
         <v>205</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>216</v>
       </c>
-      <c r="F184" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>263</v>
+      </c>
+      <c r="B185" t="s">
         <v>205</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>4</v>
       </c>
-      <c r="F185" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>263</v>
+      </c>
+      <c r="B186" t="s">
         <v>205</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>210</v>
       </c>
-      <c r="F186" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>263</v>
+      </c>
+      <c r="B187" t="s">
         <v>205</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>213</v>
       </c>
-      <c r="F187" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>263</v>
+      </c>
+      <c r="B188" t="s">
         <v>205</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>207</v>
       </c>
-      <c r="E188" t="s">
+      <c r="D188" t="s">
+        <v>263</v>
+      </c>
+      <c r="G188" t="s">
         <v>217</v>
       </c>
-      <c r="F188" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H188" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>263</v>
+      </c>
+      <c r="B189" t="s">
         <v>205</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>208</v>
       </c>
-      <c r="E189" t="s">
+      <c r="D189" t="s">
+        <v>263</v>
+      </c>
+      <c r="G189" t="s">
         <v>218</v>
       </c>
-      <c r="F189" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H189" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>263</v>
+      </c>
+      <c r="B190" t="s">
         <v>205</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>42</v>
       </c>
-      <c r="E190" t="s">
+      <c r="D190" t="s">
+        <v>263</v>
+      </c>
+      <c r="G190" t="s">
         <v>35</v>
       </c>
-      <c r="F190" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H190" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>263</v>
+      </c>
+      <c r="B191" t="s">
         <v>205</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>209</v>
       </c>
-      <c r="E191" t="s">
+      <c r="D191" t="s">
+        <v>263</v>
+      </c>
+      <c r="G191" t="s">
         <v>222</v>
       </c>
-      <c r="F191" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H191" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>263</v>
+      </c>
+      <c r="B192" t="s">
         <v>205</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>211</v>
       </c>
-      <c r="E192" t="s">
+      <c r="D192" t="s">
+        <v>263</v>
+      </c>
+      <c r="G192" t="s">
         <v>220</v>
       </c>
-      <c r="F192" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H192" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>263</v>
+      </c>
+      <c r="B193" t="s">
         <v>205</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>212</v>
       </c>
-      <c r="E193" t="s">
+      <c r="D193" t="s">
+        <v>263</v>
+      </c>
+      <c r="G193" t="s">
         <v>86</v>
       </c>
-      <c r="F193" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H193" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>263</v>
+      </c>
+      <c r="B194" t="s">
         <v>205</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>215</v>
       </c>
-      <c r="E194" t="s">
+      <c r="D194" t="s">
+        <v>263</v>
+      </c>
+      <c r="G194" t="s">
         <v>223</v>
       </c>
-      <c r="F194" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H194" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>263</v>
+      </c>
+      <c r="B195" t="s">
         <v>224</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>225</v>
       </c>
-      <c r="E195" t="s">
+      <c r="D195" t="s">
+        <v>263</v>
+      </c>
+      <c r="G195" t="s">
         <v>226</v>
       </c>
-      <c r="F195" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H195" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>263</v>
+      </c>
+      <c r="B196" t="s">
         <v>227</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>4</v>
       </c>
-      <c r="F196" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>263</v>
+      </c>
+      <c r="B197" t="s">
         <v>228</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>229</v>
       </c>
-      <c r="F197" t="s">
+      <c r="H197" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>263</v>
+      </c>
+      <c r="B198" t="s">
         <v>228</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>4</v>
       </c>
-      <c r="F198" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>263</v>
+      </c>
+      <c r="B199" t="s">
         <v>228</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>207</v>
       </c>
-      <c r="E199" t="s">
+      <c r="D199" t="s">
+        <v>263</v>
+      </c>
+      <c r="G199" t="s">
         <v>217</v>
       </c>
-      <c r="F199" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H199" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>263</v>
+      </c>
+      <c r="B200" t="s">
         <v>230</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>231</v>
       </c>
-      <c r="F200" t="s">
+      <c r="H200" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>263</v>
+      </c>
+      <c r="B201" t="s">
         <v>230</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>60</v>
       </c>
-      <c r="F201" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>263</v>
+      </c>
+      <c r="B202" t="s">
         <v>232</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>234</v>
       </c>
-      <c r="F202" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>263</v>
+      </c>
+      <c r="B203" t="s">
         <v>232</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>233</v>
       </c>
-      <c r="E203" t="s">
+      <c r="D203" t="s">
+        <v>263</v>
+      </c>
+      <c r="G203" t="s">
         <v>235</v>
       </c>
-      <c r="F203" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H203" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>263</v>
+      </c>
+      <c r="B204" t="s">
         <v>236</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>237</v>
       </c>
-      <c r="F204" t="s">
+      <c r="H204" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>263</v>
+      </c>
+      <c r="B205" t="s">
         <v>236</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>213</v>
       </c>
-      <c r="F205" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>263</v>
+      </c>
+      <c r="B206" t="s">
         <v>236</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>238</v>
       </c>
-      <c r="F206" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>263</v>
+      </c>
+      <c r="B207" t="s">
         <v>236</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>234</v>
       </c>
-      <c r="F207" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>263</v>
+      </c>
+      <c r="B208" t="s">
         <v>236</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>4</v>
       </c>
-      <c r="F208" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>263</v>
+      </c>
+      <c r="B209" t="s">
         <v>236</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>42</v>
       </c>
-      <c r="E209" t="s">
+      <c r="D209" t="s">
+        <v>263</v>
+      </c>
+      <c r="G209" t="s">
         <v>35</v>
       </c>
-      <c r="F209" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H209" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>263</v>
+      </c>
+      <c r="B210" t="s">
         <v>236</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>195</v>
       </c>
-      <c r="E210" t="s">
+      <c r="D210" t="s">
+        <v>263</v>
+      </c>
+      <c r="G210" t="s">
         <v>196</v>
       </c>
-      <c r="F210" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H210" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>263</v>
+      </c>
+      <c r="B211" t="s">
         <v>236</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>209</v>
       </c>
-      <c r="E211" t="s">
+      <c r="D211" t="s">
+        <v>263</v>
+      </c>
+      <c r="G211" t="s">
         <v>219</v>
       </c>
-      <c r="F211" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H211" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>263</v>
+      </c>
+      <c r="B212" t="s">
         <v>236</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>239</v>
       </c>
-      <c r="E212" t="s">
+      <c r="D212" t="s">
+        <v>263</v>
+      </c>
+      <c r="G212" t="s">
         <v>240</v>
       </c>
-      <c r="F212" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H212" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>263</v>
+      </c>
+      <c r="B213" t="s">
         <v>236</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>214</v>
       </c>
-      <c r="E213" t="s">
+      <c r="D213" t="s">
+        <v>263</v>
+      </c>
+      <c r="G213" t="s">
         <v>221</v>
       </c>
-      <c r="F213" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H213" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>263</v>
+      </c>
+      <c r="B214" t="s">
         <v>241</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>242</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
+        <v>263</v>
+      </c>
+      <c r="E214" t="s">
         <v>70</v>
       </c>
-      <c r="D214" t="s">
+      <c r="F214" t="s">
         <v>6</v>
       </c>
-      <c r="F214" t="s">
+      <c r="H214" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>263</v>
+      </c>
+      <c r="B215" t="s">
         <v>241</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>243</v>
       </c>
-      <c r="E215" t="s">
+      <c r="D215" t="s">
+        <v>263</v>
+      </c>
+      <c r="G215" t="s">
         <v>244</v>
       </c>
-      <c r="F215" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H215" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>263</v>
+      </c>
+      <c r="B216" t="s">
         <v>245</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>4</v>
       </c>
-      <c r="F216" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>263</v>
+      </c>
+      <c r="B217" t="s">
         <v>246</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>247</v>
       </c>
-      <c r="F217" t="s">
+      <c r="H217" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>263</v>
+      </c>
+      <c r="B218" t="s">
         <v>246</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>4</v>
       </c>
-      <c r="F218" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>263</v>
+      </c>
+      <c r="B219" t="s">
         <v>246</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>207</v>
       </c>
-      <c r="E219" t="s">
+      <c r="D219" t="s">
+        <v>263</v>
+      </c>
+      <c r="G219" t="s">
         <v>217</v>
       </c>
-      <c r="F219" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H219" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>263</v>
+      </c>
+      <c r="B220" t="s">
         <v>248</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>4</v>
       </c>
-      <c r="F220" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>263</v>
+      </c>
+      <c r="B221" t="s">
         <v>203</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>204</v>
       </c>
-      <c r="F221" t="s">
+      <c r="H221" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>263</v>
+      </c>
+      <c r="B222" t="s">
         <v>203</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>4</v>
       </c>
-      <c r="F222" t="s">
+      <c r="H222" t="s">
         <v>5</v>
       </c>
     </row>
